--- a/01.descriptive/tab_cases.xlsx
+++ b/01.descriptive/tab_cases.xlsx
@@ -17,37 +17,37 @@
     <t>microregion_name</t>
   </si>
   <si>
+    <t>Mean_pop</t>
+  </si>
+  <si>
+    <t>Sum_cases</t>
+  </si>
+  <si>
+    <t>annual_cases_mean</t>
+  </si>
+  <si>
+    <t>Rate_annual</t>
+  </si>
+  <si>
     <t>Min</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
+    <t>Percentil_25</t>
+  </si>
+  <si>
+    <t>Mediana</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Percentil_75</t>
   </si>
   <si>
     <t>Max</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
     <t>DP</t>
-  </si>
-  <si>
-    <t>Sum_cases</t>
-  </si>
-  <si>
-    <t>Mean_pop</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>annual_cases_mean</t>
   </si>
   <si>
     <t>1</t>
@@ -541,37 +541,37 @@
         <v>78</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>152580.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>11803.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1180.0</v>
       </c>
       <c r="F2" t="n">
+        <v>773.36</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
         <v>63.0</v>
       </c>
-      <c r="H2" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>6.96</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11803.0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>152580.0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>7735.61</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1180.0</v>
       </c>
     </row>
     <row r="3">
@@ -582,37 +582,37 @@
         <v>79</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>235479.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>10143.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1014.0</v>
       </c>
       <c r="F3" t="n">
+        <v>430.61</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K3" t="n">
         <v>1.0</v>
       </c>
-      <c r="G3" t="n">
+      <c r="L3" t="n">
         <v>98.0</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>9.15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10143.0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>235479.0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4307.39</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1014.0</v>
       </c>
     </row>
     <row r="4">
@@ -623,37 +623,37 @@
         <v>80</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>185494.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>3551.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>355.0</v>
       </c>
       <c r="F4" t="n">
+        <v>191.38</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K4" t="n">
         <v>1.0</v>
       </c>
-      <c r="G4" t="n">
+      <c r="L4" t="n">
         <v>64.0</v>
       </c>
-      <c r="H4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>3.52</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3551.0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>185494.0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1914.35</v>
-      </c>
-      <c r="M4" t="n">
-        <v>355.0</v>
       </c>
     </row>
     <row r="5">
@@ -664,37 +664,37 @@
         <v>81</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>73336.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>234.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>31.36</v>
       </c>
       <c r="G5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L5" t="n">
         <v>7.0</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>0.39</v>
-      </c>
-      <c r="J5" t="n">
-        <v>234.0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>73336.0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>319.08</v>
-      </c>
-      <c r="M5" t="n">
-        <v>23.0</v>
       </c>
     </row>
     <row r="6">
@@ -705,37 +705,37 @@
         <v>82</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0</v>
+        <v>160943.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>7879.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>788.0</v>
       </c>
       <c r="F6" t="n">
+        <v>489.61</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K6" t="n">
         <v>1.0</v>
       </c>
-      <c r="G6" t="n">
+      <c r="L6" t="n">
         <v>98.0</v>
       </c>
-      <c r="H6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>6.83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7879.0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>160943.0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4895.52</v>
-      </c>
-      <c r="M6" t="n">
-        <v>788.0</v>
       </c>
     </row>
     <row r="7">
@@ -746,37 +746,37 @@
         <v>83</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0</v>
+        <v>219192.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>14979.0</v>
       </c>
       <c r="E7" t="n">
+        <v>1498.0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>683.42</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.0</v>
       </c>
-      <c r="F7" t="n">
+      <c r="J7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.0</v>
       </c>
-      <c r="G7" t="n">
+      <c r="L7" t="n">
         <v>86.0</v>
       </c>
-      <c r="H7" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="M7" t="n">
         <v>9.52</v>
-      </c>
-      <c r="J7" t="n">
-        <v>14979.0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>219192.0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>6833.73</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1498.0</v>
       </c>
     </row>
     <row r="8">
@@ -787,37 +787,37 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>223836.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>4301.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>430.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>192.1</v>
       </c>
       <c r="G8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L8" t="n">
         <v>124.0</v>
       </c>
-      <c r="H8" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="M8" t="n">
         <v>6.47</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4301.0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>223836.0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1921.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>430.0</v>
       </c>
     </row>
     <row r="9">
@@ -828,37 +828,37 @@
         <v>85</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
+        <v>5044354.0</v>
       </c>
       <c r="D9" t="n">
+        <v>891462.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>89146.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1767.24</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" t="n">
         <v>4.0</v>
       </c>
-      <c r="E9" t="n">
+      <c r="I9" t="n">
         <v>11.0</v>
       </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
+        <v>244.1</v>
+      </c>
+      <c r="K9" t="n">
         <v>54.0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="L9" t="n">
         <v>5691.0</v>
       </c>
-      <c r="H9" t="n">
-        <v>244.1</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="M9" t="n">
         <v>710.24</v>
-      </c>
-      <c r="J9" t="n">
-        <v>891462.0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5044354.0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>17672.47</v>
-      </c>
-      <c r="M9" t="n">
-        <v>89146.0</v>
       </c>
     </row>
     <row r="10">
@@ -869,37 +869,37 @@
         <v>86</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>71833.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>10933.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>1093.0</v>
       </c>
       <c r="F10" t="n">
+        <v>1521.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="K10" t="n">
         <v>1.0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="L10" t="n">
         <v>135.0</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="M10" t="n">
         <v>10.1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10933.0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>71833.0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>15220.02</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1093.0</v>
       </c>
     </row>
     <row r="11">
@@ -910,37 +910,37 @@
         <v>87</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0</v>
+        <v>174138.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>25120.0</v>
       </c>
       <c r="E11" t="n">
+        <v>2512.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1442.53</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.0</v>
       </c>
-      <c r="F11" t="n">
+      <c r="J11" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="L11" t="n">
         <v>212.0</v>
       </c>
-      <c r="H11" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="I11" t="n">
+      <c r="M11" t="n">
         <v>18.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>25120.0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>174138.0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>14425.34</v>
-      </c>
-      <c r="M11" t="n">
-        <v>2512.0</v>
       </c>
     </row>
     <row r="12">
@@ -951,37 +951,37 @@
         <v>88</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0</v>
+        <v>116055.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>8273.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>827.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>712.59</v>
       </c>
       <c r="G12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L12" t="n">
         <v>93.0</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="M12" t="n">
         <v>8.26</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8273.0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>116055.0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7128.52</v>
-      </c>
-      <c r="M12" t="n">
-        <v>827.0</v>
       </c>
     </row>
     <row r="13">
@@ -992,37 +992,37 @@
         <v>89</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>204770.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>8582.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>858.0</v>
       </c>
       <c r="F13" t="n">
+        <v>419.01</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K13" t="n">
         <v>1.0</v>
       </c>
-      <c r="G13" t="n">
+      <c r="L13" t="n">
         <v>117.0</v>
       </c>
-      <c r="H13" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="M13" t="n">
         <v>8.19</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8582.0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>204770.0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4191.04</v>
-      </c>
-      <c r="M13" t="n">
-        <v>858.0</v>
       </c>
     </row>
     <row r="14">
@@ -1033,37 +1033,37 @@
         <v>90</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0</v>
+        <v>262736.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>8397.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>840.0</v>
       </c>
       <c r="F14" t="n">
+        <v>319.71</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K14" t="n">
         <v>1.0</v>
       </c>
-      <c r="G14" t="n">
+      <c r="L14" t="n">
         <v>102.0</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="M14" t="n">
         <v>8.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>8397.0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>262736.0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3195.98</v>
-      </c>
-      <c r="M14" t="n">
-        <v>840.0</v>
       </c>
     </row>
     <row r="15">
@@ -1074,37 +1074,37 @@
         <v>91</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0</v>
+        <v>223886.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>19357.0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0</v>
+        <v>1936.0</v>
       </c>
       <c r="F15" t="n">
+        <v>864.73</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.0</v>
       </c>
-      <c r="G15" t="n">
+      <c r="L15" t="n">
         <v>160.0</v>
       </c>
-      <c r="H15" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="M15" t="n">
         <v>16.75</v>
-      </c>
-      <c r="J15" t="n">
-        <v>19357.0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>223886.0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>8645.92</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1936.0</v>
       </c>
     </row>
     <row r="16">
@@ -1115,37 +1115,37 @@
         <v>92</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0</v>
+        <v>83040.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0</v>
+        <v>189.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>227.6</v>
       </c>
       <c r="G16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" t="n">
         <v>31.0</v>
       </c>
-      <c r="H16" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="I16" t="n">
+      <c r="M16" t="n">
         <v>2.0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1889.0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>83040.0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2274.81</v>
-      </c>
-      <c r="M16" t="n">
-        <v>189.0</v>
       </c>
     </row>
     <row r="17">
@@ -1156,37 +1156,37 @@
         <v>93</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0</v>
+        <v>261489.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>4571.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>457.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>174.77</v>
       </c>
       <c r="G17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" t="n">
         <v>63.0</v>
       </c>
-      <c r="H17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="M17" t="n">
         <v>4.96</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4571.0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>261489.0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1748.07</v>
-      </c>
-      <c r="M17" t="n">
-        <v>457.0</v>
       </c>
     </row>
     <row r="18">
@@ -1197,37 +1197,37 @@
         <v>94</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0</v>
+        <v>155991.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>27729.0</v>
       </c>
       <c r="E18" t="n">
+        <v>2773.0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1777.67</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I18" t="n">
         <v>1.0</v>
       </c>
-      <c r="F18" t="n">
+      <c r="J18" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="K18" t="n">
         <v>4.0</v>
       </c>
-      <c r="G18" t="n">
+      <c r="L18" t="n">
         <v>239.0</v>
       </c>
-      <c r="H18" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="M18" t="n">
         <v>21.36</v>
-      </c>
-      <c r="J18" t="n">
-        <v>27729.0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>155991.0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>17776.03</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2773.0</v>
       </c>
     </row>
     <row r="19">
@@ -1238,37 +1238,37 @@
         <v>95</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0</v>
+        <v>84548.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>4208.0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0</v>
+        <v>421.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>497.94</v>
       </c>
       <c r="G19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" t="n">
         <v>87.0</v>
       </c>
-      <c r="H19" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="M19" t="n">
         <v>4.8</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4208.0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>84548.0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4977.05</v>
-      </c>
-      <c r="M19" t="n">
-        <v>421.0</v>
       </c>
     </row>
     <row r="20">
@@ -1279,37 +1279,37 @@
         <v>96</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0</v>
+        <v>525211.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>62892.0</v>
       </c>
       <c r="E20" t="n">
+        <v>6289.0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1197.42</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I20" t="n">
         <v>1.0</v>
       </c>
-      <c r="F20" t="n">
+      <c r="J20" t="n">
+        <v>17.22</v>
+      </c>
+      <c r="K20" t="n">
         <v>7.0</v>
       </c>
-      <c r="G20" t="n">
+      <c r="L20" t="n">
         <v>435.0</v>
       </c>
-      <c r="H20" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="I20" t="n">
+      <c r="M20" t="n">
         <v>43.38</v>
-      </c>
-      <c r="J20" t="n">
-        <v>62892.0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>525211.0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>11974.62</v>
-      </c>
-      <c r="M20" t="n">
-        <v>6289.0</v>
       </c>
     </row>
     <row r="21">
@@ -1320,37 +1320,37 @@
         <v>97</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0</v>
+        <v>157558.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>20961.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0</v>
+        <v>2096.0</v>
       </c>
       <c r="F21" t="n">
+        <v>1330.3</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.0</v>
       </c>
-      <c r="G21" t="n">
+      <c r="L21" t="n">
         <v>141.0</v>
       </c>
-      <c r="H21" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="M21" t="n">
         <v>15.77</v>
-      </c>
-      <c r="J21" t="n">
-        <v>20961.0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>157558.0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>13303.67</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2096.0</v>
       </c>
     </row>
     <row r="22">
@@ -1361,37 +1361,37 @@
         <v>98</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0</v>
+        <v>191894.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>20521.0</v>
       </c>
       <c r="E22" t="n">
+        <v>2052.0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1069.34</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I22" t="n">
         <v>1.0</v>
       </c>
-      <c r="F22" t="n">
+      <c r="J22" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.0</v>
       </c>
-      <c r="G22" t="n">
+      <c r="L22" t="n">
         <v>183.0</v>
       </c>
-      <c r="H22" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="M22" t="n">
         <v>13.28</v>
-      </c>
-      <c r="J22" t="n">
-        <v>20521.0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>191894.0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>10693.92</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2052.0</v>
       </c>
     </row>
     <row r="23">
@@ -1402,37 +1402,37 @@
         <v>99</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0</v>
+        <v>430050.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>28902.0</v>
       </c>
       <c r="E23" t="n">
+        <v>2890.0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>672.01</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I23" t="n">
         <v>2.0</v>
       </c>
-      <c r="F23" t="n">
+      <c r="J23" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="K23" t="n">
         <v>8.0</v>
       </c>
-      <c r="G23" t="n">
+      <c r="L23" t="n">
         <v>143.0</v>
       </c>
-      <c r="H23" t="n">
-        <v>7.91</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="M23" t="n">
         <v>15.29</v>
-      </c>
-      <c r="J23" t="n">
-        <v>28902.0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>430050.0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6720.61</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2890.0</v>
       </c>
     </row>
     <row r="24">
@@ -1443,37 +1443,37 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0</v>
+        <v>44170.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>1658.0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0</v>
+        <v>166.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>375.82</v>
       </c>
       <c r="G24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L24" t="n">
         <v>22.0</v>
       </c>
-      <c r="H24" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="M24" t="n">
         <v>1.77</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1658.0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>44170.0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3753.68</v>
-      </c>
-      <c r="M24" t="n">
-        <v>166.0</v>
       </c>
     </row>
     <row r="25">
@@ -1484,37 +1484,37 @@
         <v>101</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0</v>
+        <v>134379.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>2231.0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0</v>
+        <v>223.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>165.95</v>
       </c>
       <c r="G25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L25" t="n">
         <v>29.0</v>
       </c>
-      <c r="H25" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="M25" t="n">
         <v>2.13</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2231.0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>134379.0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1660.23</v>
-      </c>
-      <c r="M25" t="n">
-        <v>223.0</v>
       </c>
     </row>
     <row r="26">
@@ -1525,37 +1525,37 @@
         <v>102</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0</v>
+        <v>555433.0</v>
       </c>
       <c r="D26" t="n">
+        <v>70244.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7024.0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1264.6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H26" t="n">
         <v>1.0</v>
       </c>
-      <c r="E26" t="n">
+      <c r="I26" t="n">
         <v>4.0</v>
       </c>
-      <c r="F26" t="n">
+      <c r="J26" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="K26" t="n">
         <v>12.0</v>
       </c>
-      <c r="G26" t="n">
+      <c r="L26" t="n">
         <v>846.0</v>
       </c>
-      <c r="H26" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="I26" t="n">
+      <c r="M26" t="n">
         <v>60.68</v>
-      </c>
-      <c r="J26" t="n">
-        <v>70244.0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>555433.0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>12646.71</v>
-      </c>
-      <c r="M26" t="n">
-        <v>7024.0</v>
       </c>
     </row>
     <row r="27">
@@ -1566,37 +1566,37 @@
         <v>103</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0</v>
+        <v>395688.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0</v>
+        <v>21157.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>2116.0</v>
       </c>
       <c r="F27" t="n">
+        <v>534.76</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="K27" t="n">
         <v>2.0</v>
       </c>
-      <c r="G27" t="n">
+      <c r="L27" t="n">
         <v>254.0</v>
       </c>
-      <c r="H27" t="n">
-        <v>5.79</v>
-      </c>
-      <c r="I27" t="n">
+      <c r="M27" t="n">
         <v>17.77</v>
-      </c>
-      <c r="J27" t="n">
-        <v>21157.0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>395688.0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5346.89</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2116.0</v>
       </c>
     </row>
     <row r="28">
@@ -1607,37 +1607,37 @@
         <v>104</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0</v>
+        <v>63736.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>4500.0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0</v>
+        <v>450.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>706.04</v>
       </c>
       <c r="G28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L28" t="n">
         <v>49.0</v>
       </c>
-      <c r="H28" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I28" t="n">
+      <c r="M28" t="n">
         <v>4.33</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4500.0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>63736.0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>7060.37</v>
-      </c>
-      <c r="M28" t="n">
-        <v>450.0</v>
       </c>
     </row>
     <row r="29">
@@ -1648,37 +1648,37 @@
         <v>105</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0</v>
+        <v>193683.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0</v>
+        <v>2523.0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0</v>
+        <v>252.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>130.11</v>
       </c>
       <c r="G29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L29" t="n">
         <v>73.0</v>
       </c>
-      <c r="H29" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="I29" t="n">
+      <c r="M29" t="n">
         <v>4.67</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2523.0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>193683.0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1302.64</v>
-      </c>
-      <c r="M29" t="n">
-        <v>252.0</v>
       </c>
     </row>
     <row r="30">
@@ -1689,37 +1689,37 @@
         <v>106</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0</v>
+        <v>149676.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>19015.0</v>
       </c>
       <c r="E30" t="n">
+        <v>1902.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1270.74</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I30" t="n">
         <v>1.0</v>
       </c>
-      <c r="F30" t="n">
+      <c r="J30" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="K30" t="n">
         <v>5.0</v>
       </c>
-      <c r="G30" t="n">
+      <c r="L30" t="n">
         <v>92.0</v>
       </c>
-      <c r="H30" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="I30" t="n">
+      <c r="M30" t="n">
         <v>10.15</v>
-      </c>
-      <c r="J30" t="n">
-        <v>19015.0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>149676.0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>12704.11</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1902.0</v>
       </c>
     </row>
     <row r="31">
@@ -1730,37 +1730,37 @@
         <v>107</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0</v>
+        <v>255399.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>17588.0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0</v>
+        <v>1759.0</v>
       </c>
       <c r="F31" t="n">
+        <v>688.73</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.0</v>
       </c>
-      <c r="G31" t="n">
+      <c r="L31" t="n">
         <v>167.0</v>
       </c>
-      <c r="H31" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="M31" t="n">
         <v>12.72</v>
-      </c>
-      <c r="J31" t="n">
-        <v>17588.0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>255399.0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>6886.48</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1759.0</v>
       </c>
     </row>
     <row r="32">
@@ -1771,37 +1771,37 @@
         <v>108</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0</v>
+        <v>285299.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>15454.0</v>
       </c>
       <c r="E32" t="n">
+        <v>1545.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>541.54</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I32" t="n">
         <v>1.0</v>
       </c>
-      <c r="F32" t="n">
+      <c r="J32" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.0</v>
       </c>
-      <c r="G32" t="n">
+      <c r="L32" t="n">
         <v>148.0</v>
       </c>
-      <c r="H32" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="M32" t="n">
         <v>10.83</v>
-      </c>
-      <c r="J32" t="n">
-        <v>15454.0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>285299.0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5416.77</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1545.0</v>
       </c>
     </row>
     <row r="33">
@@ -1812,37 +1812,37 @@
         <v>109</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0</v>
+        <v>765100.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0</v>
+        <v>77098.0</v>
       </c>
       <c r="E33" t="n">
+        <v>7710.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1007.71</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I33" t="n">
         <v>1.0</v>
       </c>
-      <c r="F33" t="n">
+      <c r="J33" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="K33" t="n">
         <v>5.0</v>
       </c>
-      <c r="G33" t="n">
+      <c r="L33" t="n">
         <v>913.0</v>
       </c>
-      <c r="H33" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="I33" t="n">
+      <c r="M33" t="n">
         <v>69.02</v>
-      </c>
-      <c r="J33" t="n">
-        <v>77098.0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>765100.0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>10076.85</v>
-      </c>
-      <c r="M33" t="n">
-        <v>7710.0</v>
       </c>
     </row>
     <row r="34">
@@ -1853,37 +1853,37 @@
         <v>110</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0</v>
+        <v>157806.0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>11747.0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0</v>
+        <v>1175.0</v>
       </c>
       <c r="F34" t="n">
+        <v>744.59</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.0</v>
       </c>
-      <c r="G34" t="n">
+      <c r="L34" t="n">
         <v>196.0</v>
       </c>
-      <c r="H34" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="I34" t="n">
+      <c r="M34" t="n">
         <v>13.47</v>
-      </c>
-      <c r="J34" t="n">
-        <v>11747.0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>157806.0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>7443.95</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1175.0</v>
       </c>
     </row>
     <row r="35">
@@ -1894,37 +1894,37 @@
         <v>111</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0</v>
+        <v>287269.0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0</v>
+        <v>11097.0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0</v>
+        <v>1110.0</v>
       </c>
       <c r="F35" t="n">
+        <v>386.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K35" t="n">
         <v>1.0</v>
       </c>
-      <c r="G35" t="n">
+      <c r="L35" t="n">
         <v>97.0</v>
       </c>
-      <c r="H35" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="I35" t="n">
+      <c r="M35" t="n">
         <v>10.68</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11097.0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>287269.0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3862.93</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1110.0</v>
       </c>
     </row>
     <row r="36">
@@ -1935,37 +1935,37 @@
         <v>112</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0</v>
+        <v>64854.0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0</v>
+        <v>3743.0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0</v>
+        <v>374.0</v>
       </c>
       <c r="F36" t="n">
+        <v>576.68</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K36" t="n">
         <v>1.0</v>
       </c>
-      <c r="G36" t="n">
+      <c r="L36" t="n">
         <v>55.0</v>
       </c>
-      <c r="H36" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="I36" t="n">
+      <c r="M36" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3743.0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>64854.0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>5771.43</v>
-      </c>
-      <c r="M36" t="n">
-        <v>374.0</v>
       </c>
     </row>
     <row r="37">
@@ -1976,37 +1976,37 @@
         <v>113</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0</v>
+        <v>635459.0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0</v>
+        <v>47150.0</v>
       </c>
       <c r="E37" t="n">
+        <v>4715.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>741.98</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I37" t="n">
         <v>1.0</v>
       </c>
-      <c r="F37" t="n">
+      <c r="J37" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="K37" t="n">
         <v>6.0</v>
       </c>
-      <c r="G37" t="n">
+      <c r="L37" t="n">
         <v>498.0</v>
       </c>
-      <c r="H37" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="I37" t="n">
+      <c r="M37" t="n">
         <v>34.95</v>
-      </c>
-      <c r="J37" t="n">
-        <v>47150.0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>635459.0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>7419.83</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4715.0</v>
       </c>
     </row>
     <row r="38">
@@ -2017,37 +2017,37 @@
         <v>114</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0</v>
+        <v>286260.0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0</v>
+        <v>17257.0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0</v>
+        <v>1726.0</v>
       </c>
       <c r="F38" t="n">
+        <v>602.95</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="K38" t="n">
         <v>2.0</v>
       </c>
-      <c r="G38" t="n">
+      <c r="L38" t="n">
         <v>159.0</v>
       </c>
-      <c r="H38" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="I38" t="n">
+      <c r="M38" t="n">
         <v>13.59</v>
-      </c>
-      <c r="J38" t="n">
-        <v>17257.0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>286260.0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>6028.44</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1726.0</v>
       </c>
     </row>
     <row r="39">
@@ -2058,37 +2058,37 @@
         <v>115</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0</v>
+        <v>120577.0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0</v>
+        <v>7130.0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0</v>
+        <v>713.0</v>
       </c>
       <c r="F39" t="n">
+        <v>591.32</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K39" t="n">
         <v>1.0</v>
       </c>
-      <c r="G39" t="n">
+      <c r="L39" t="n">
         <v>53.0</v>
       </c>
-      <c r="H39" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I39" t="n">
+      <c r="M39" t="n">
         <v>5.63</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7130.0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>120577.0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>5913.23</v>
-      </c>
-      <c r="M39" t="n">
-        <v>713.0</v>
       </c>
     </row>
     <row r="40">
@@ -2099,37 +2099,37 @@
         <v>116</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0</v>
+        <v>130650.0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0</v>
+        <v>4026.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0</v>
+        <v>403.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>308.46</v>
       </c>
       <c r="G40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L40" t="n">
         <v>42.0</v>
       </c>
-      <c r="H40" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I40" t="n">
+      <c r="M40" t="n">
         <v>3.62</v>
-      </c>
-      <c r="J40" t="n">
-        <v>4026.0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>130650.0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3081.52</v>
-      </c>
-      <c r="M40" t="n">
-        <v>403.0</v>
       </c>
     </row>
     <row r="41">
@@ -2140,37 +2140,37 @@
         <v>117</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0</v>
+        <v>183791.0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0</v>
+        <v>2782.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0</v>
+        <v>278.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>151.26</v>
       </c>
       <c r="G41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L41" t="n">
         <v>46.0</v>
       </c>
-      <c r="H41" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="I41" t="n">
+      <c r="M41" t="n">
         <v>2.78</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2782.0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>183791.0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>1513.68</v>
-      </c>
-      <c r="M41" t="n">
-        <v>278.0</v>
       </c>
     </row>
     <row r="42">
@@ -2181,37 +2181,37 @@
         <v>118</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0</v>
+        <v>131500.0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>14056.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0</v>
+        <v>1406.0</v>
       </c>
       <c r="F42" t="n">
+        <v>1069.2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K42" t="n">
         <v>1.0</v>
       </c>
-      <c r="G42" t="n">
+      <c r="L42" t="n">
         <v>151.0</v>
       </c>
-      <c r="H42" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="I42" t="n">
+      <c r="M42" t="n">
         <v>13.46</v>
-      </c>
-      <c r="J42" t="n">
-        <v>14056.0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>131500.0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>10688.97</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1406.0</v>
       </c>
     </row>
     <row r="43">
@@ -2222,37 +2222,37 @@
         <v>119</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0</v>
+        <v>229068.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0</v>
+        <v>28243.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0</v>
+        <v>2824.0</v>
       </c>
       <c r="F43" t="n">
+        <v>1232.82</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="K43" t="n">
         <v>4.0</v>
       </c>
-      <c r="G43" t="n">
+      <c r="L43" t="n">
         <v>146.0</v>
       </c>
-      <c r="H43" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="M43" t="n">
         <v>18.5</v>
-      </c>
-      <c r="J43" t="n">
-        <v>28243.0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>229068.0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>12329.53</v>
-      </c>
-      <c r="M43" t="n">
-        <v>2824.0</v>
       </c>
     </row>
     <row r="44">
@@ -2263,37 +2263,37 @@
         <v>120</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0</v>
+        <v>236387.0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0</v>
+        <v>18353.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0</v>
+        <v>1835.0</v>
       </c>
       <c r="F44" t="n">
+        <v>776.27</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="K44" t="n">
         <v>3.0</v>
       </c>
-      <c r="G44" t="n">
+      <c r="L44" t="n">
         <v>129.0</v>
       </c>
-      <c r="H44" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="I44" t="n">
+      <c r="M44" t="n">
         <v>11.78</v>
-      </c>
-      <c r="J44" t="n">
-        <v>18353.0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>236387.0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>7763.96</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1835.0</v>
       </c>
     </row>
     <row r="45">
@@ -2304,37 +2304,37 @@
         <v>121</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0</v>
+        <v>265420.0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0</v>
+        <v>24675.0</v>
       </c>
       <c r="E45" t="n">
+        <v>2468.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>929.85</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I45" t="n">
         <v>1.0</v>
       </c>
-      <c r="F45" t="n">
+      <c r="J45" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="K45" t="n">
         <v>4.0</v>
       </c>
-      <c r="G45" t="n">
+      <c r="L45" t="n">
         <v>204.0</v>
       </c>
-      <c r="H45" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="M45" t="n">
         <v>18.66</v>
-      </c>
-      <c r="J45" t="n">
-        <v>24675.0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>265420.0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>9296.59</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2468.0</v>
       </c>
     </row>
     <row r="46">
@@ -2345,37 +2345,37 @@
         <v>122</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0</v>
+        <v>206306.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0</v>
+        <v>13967.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0</v>
+        <v>1397.0</v>
       </c>
       <c r="F46" t="n">
+        <v>677.15</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="K46" t="n">
         <v>2.0</v>
       </c>
-      <c r="G46" t="n">
+      <c r="L46" t="n">
         <v>138.0</v>
       </c>
-      <c r="H46" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="I46" t="n">
+      <c r="M46" t="n">
         <v>11.48</v>
-      </c>
-      <c r="J46" t="n">
-        <v>13967.0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>206306.0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>6770.04</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1397.0</v>
       </c>
     </row>
     <row r="47">
@@ -2386,37 +2386,37 @@
         <v>123</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0</v>
+        <v>82001.0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0</v>
+        <v>2228.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0</v>
+        <v>223.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>271.95</v>
       </c>
       <c r="G47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L47" t="n">
         <v>30.0</v>
       </c>
-      <c r="H47" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="I47" t="n">
+      <c r="M47" t="n">
         <v>2.12</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2228.0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>82001.0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2717.04</v>
-      </c>
-      <c r="M47" t="n">
-        <v>223.0</v>
       </c>
     </row>
     <row r="48">
@@ -2427,37 +2427,37 @@
         <v>124</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0</v>
+        <v>83898.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0</v>
+        <v>4309.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0</v>
+        <v>431.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>513.72</v>
       </c>
       <c r="G48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L48" t="n">
         <v>91.0</v>
       </c>
-      <c r="H48" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="I48" t="n">
+      <c r="M48" t="n">
         <v>4.75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>4309.0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>83898.0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>5136.0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>431.0</v>
       </c>
     </row>
     <row r="49">
@@ -2468,37 +2468,37 @@
         <v>125</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0</v>
+        <v>171568.0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0</v>
+        <v>16524.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0</v>
+        <v>1652.0</v>
       </c>
       <c r="F49" t="n">
+        <v>962.88</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.0</v>
       </c>
-      <c r="G49" t="n">
+      <c r="L49" t="n">
         <v>167.0</v>
       </c>
-      <c r="H49" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="I49" t="n">
+      <c r="M49" t="n">
         <v>13.56</v>
-      </c>
-      <c r="J49" t="n">
-        <v>16524.0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>171568.0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>9631.17</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1652.0</v>
       </c>
     </row>
     <row r="50">
@@ -2509,37 +2509,37 @@
         <v>126</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0</v>
+        <v>84724.0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0</v>
+        <v>5246.0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0</v>
+        <v>525.0</v>
       </c>
       <c r="F50" t="n">
+        <v>619.66</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K50" t="n">
         <v>1.0</v>
       </c>
-      <c r="G50" t="n">
+      <c r="L50" t="n">
         <v>52.0</v>
       </c>
-      <c r="H50" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I50" t="n">
+      <c r="M50" t="n">
         <v>4.43</v>
-      </c>
-      <c r="J50" t="n">
-        <v>5246.0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>84724.0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>6191.87</v>
-      </c>
-      <c r="M50" t="n">
-        <v>525.0</v>
       </c>
     </row>
     <row r="51">
@@ -2550,37 +2550,37 @@
         <v>127</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0</v>
+        <v>359702.0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0</v>
+        <v>2104.0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0</v>
+        <v>210.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>58.38</v>
       </c>
       <c r="G51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L51" t="n">
         <v>60.0</v>
       </c>
-      <c r="H51" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="I51" t="n">
+      <c r="M51" t="n">
         <v>2.93</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2104.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>359702.0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>584.93</v>
-      </c>
-      <c r="M51" t="n">
-        <v>210.0</v>
       </c>
     </row>
     <row r="52">
@@ -2591,37 +2591,37 @@
         <v>128</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0</v>
+        <v>189490.0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0</v>
+        <v>10176.0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0</v>
+        <v>1018.0</v>
       </c>
       <c r="F52" t="n">
+        <v>537.23</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="K52" t="n">
         <v>1.0</v>
       </c>
-      <c r="G52" t="n">
+      <c r="L52" t="n">
         <v>90.0</v>
       </c>
-      <c r="H52" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="I52" t="n">
+      <c r="M52" t="n">
         <v>8.09</v>
-      </c>
-      <c r="J52" t="n">
-        <v>10176.0</v>
-      </c>
-      <c r="K52" t="n">
-        <v>189490.0</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5370.2</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1018.0</v>
       </c>
     </row>
     <row r="53">
@@ -2632,37 +2632,37 @@
         <v>129</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0</v>
+        <v>346805.0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>1354.0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0</v>
+        <v>135.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>38.93</v>
       </c>
       <c r="G53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L53" t="n">
         <v>35.0</v>
       </c>
-      <c r="H53" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="I53" t="n">
+      <c r="M53" t="n">
         <v>1.99</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1354.0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>346805.0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>390.42</v>
-      </c>
-      <c r="M53" t="n">
-        <v>135.0</v>
       </c>
     </row>
     <row r="54">
@@ -2673,37 +2673,37 @@
         <v>130</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0</v>
+        <v>218594.0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0</v>
+        <v>4946.0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0</v>
+        <v>495.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0</v>
+        <v>226.45</v>
       </c>
       <c r="G54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L54" t="n">
         <v>60.0</v>
       </c>
-      <c r="H54" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I54" t="n">
+      <c r="M54" t="n">
         <v>4.25</v>
-      </c>
-      <c r="J54" t="n">
-        <v>4946.0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>218594.0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2262.64</v>
-      </c>
-      <c r="M54" t="n">
-        <v>495.0</v>
       </c>
     </row>
     <row r="55">
@@ -2714,37 +2714,37 @@
         <v>131</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0</v>
+        <v>144263.0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0</v>
+        <v>2253.0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0</v>
+        <v>225.0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0</v>
+        <v>155.97</v>
       </c>
       <c r="G55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L55" t="n">
         <v>36.0</v>
       </c>
-      <c r="H55" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="I55" t="n">
+      <c r="M55" t="n">
         <v>2.71</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2253.0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>144263.0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>1561.73</v>
-      </c>
-      <c r="M55" t="n">
-        <v>225.0</v>
       </c>
     </row>
     <row r="56">
@@ -2755,37 +2755,37 @@
         <v>132</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0</v>
+        <v>190195.0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0</v>
+        <v>5136.0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0</v>
+        <v>514.0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0</v>
+        <v>270.25</v>
       </c>
       <c r="G56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L56" t="n">
         <v>62.0</v>
       </c>
-      <c r="H56" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="I56" t="n">
+      <c r="M56" t="n">
         <v>4.97</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5136.0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>190195.0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2700.39</v>
-      </c>
-      <c r="M56" t="n">
-        <v>514.0</v>
       </c>
     </row>
     <row r="57">
@@ -2796,37 +2796,37 @@
         <v>133</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0</v>
+        <v>213925.0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0</v>
+        <v>3378.0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0</v>
+        <v>338.0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0</v>
+        <v>158.0</v>
       </c>
       <c r="G57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L57" t="n">
         <v>65.0</v>
       </c>
-      <c r="H57" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I57" t="n">
+      <c r="M57" t="n">
         <v>4.27</v>
-      </c>
-      <c r="J57" t="n">
-        <v>3378.0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>213925.0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>1579.06</v>
-      </c>
-      <c r="M57" t="n">
-        <v>338.0</v>
       </c>
     </row>
     <row r="58">
@@ -2837,37 +2837,37 @@
         <v>134</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0</v>
+        <v>275155.0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0</v>
+        <v>10956.0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0</v>
+        <v>1096.0</v>
       </c>
       <c r="F58" t="n">
+        <v>398.32</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K58" t="n">
         <v>1.0</v>
       </c>
-      <c r="G58" t="n">
+      <c r="L58" t="n">
         <v>79.0</v>
       </c>
-      <c r="H58" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I58" t="n">
+      <c r="M58" t="n">
         <v>7.94</v>
-      </c>
-      <c r="J58" t="n">
-        <v>10956.0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>275155.0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3981.76</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1096.0</v>
       </c>
     </row>
     <row r="59">
@@ -2878,37 +2878,37 @@
         <v>135</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0</v>
+        <v>418140.0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0</v>
+        <v>70962.0</v>
       </c>
       <c r="E59" t="n">
+        <v>7096.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1697.04</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I59" t="n">
         <v>1.0</v>
       </c>
-      <c r="F59" t="n">
+      <c r="J59" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="K59" t="n">
         <v>4.0</v>
       </c>
-      <c r="G59" t="n">
+      <c r="L59" t="n">
         <v>742.0</v>
       </c>
-      <c r="H59" t="n">
-        <v>19.43</v>
-      </c>
-      <c r="I59" t="n">
+      <c r="M59" t="n">
         <v>65.67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>70962.0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>418140.0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>16970.87</v>
-      </c>
-      <c r="M59" t="n">
-        <v>7096.0</v>
       </c>
     </row>
     <row r="60">
@@ -2919,37 +2919,37 @@
         <v>136</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0</v>
+        <v>273630.0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0</v>
+        <v>24635.0</v>
       </c>
       <c r="E60" t="n">
+        <v>2464.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>900.49</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I60" t="n">
         <v>1.0</v>
       </c>
-      <c r="F60" t="n">
+      <c r="J60" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="K60" t="n">
         <v>4.0</v>
       </c>
-      <c r="G60" t="n">
+      <c r="L60" t="n">
         <v>360.0</v>
       </c>
-      <c r="H60" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="I60" t="n">
+      <c r="M60" t="n">
         <v>21.61</v>
-      </c>
-      <c r="J60" t="n">
-        <v>24635.0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>273630.0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>9003.03</v>
-      </c>
-      <c r="M60" t="n">
-        <v>2464.0</v>
       </c>
     </row>
     <row r="61">
@@ -2960,37 +2960,37 @@
         <v>137</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0</v>
+        <v>101569.0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0</v>
+        <v>13804.0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0</v>
+        <v>1380.0</v>
       </c>
       <c r="F61" t="n">
+        <v>1358.68</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="K61" t="n">
         <v>2.0</v>
       </c>
-      <c r="G61" t="n">
+      <c r="L61" t="n">
         <v>107.0</v>
       </c>
-      <c r="H61" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="I61" t="n">
+      <c r="M61" t="n">
         <v>10.14</v>
-      </c>
-      <c r="J61" t="n">
-        <v>13804.0</v>
-      </c>
-      <c r="K61" t="n">
-        <v>101569.0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>13590.76</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1380.0</v>
       </c>
     </row>
     <row r="62">
@@ -3001,37 +3001,37 @@
         <v>138</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0</v>
+        <v>284647.0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0</v>
+        <v>35396.0</v>
       </c>
       <c r="E62" t="n">
+        <v>3540.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1243.65</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I62" t="n">
         <v>1.0</v>
       </c>
-      <c r="F62" t="n">
+      <c r="J62" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="K62" t="n">
         <v>5.0</v>
       </c>
-      <c r="G62" t="n">
+      <c r="L62" t="n">
         <v>471.0</v>
       </c>
-      <c r="H62" t="n">
-        <v>9.69</v>
-      </c>
-      <c r="I62" t="n">
+      <c r="M62" t="n">
         <v>30.78</v>
-      </c>
-      <c r="J62" t="n">
-        <v>35396.0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>284647.0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>12435.05</v>
-      </c>
-      <c r="M62" t="n">
-        <v>3540.0</v>
       </c>
     </row>
     <row r="63">
@@ -3042,37 +3042,37 @@
         <v>139</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0</v>
+        <v>372247.0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0</v>
+        <v>32196.0</v>
       </c>
       <c r="E63" t="n">
+        <v>3220.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>865.02</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I63" t="n">
         <v>1.0</v>
       </c>
-      <c r="F63" t="n">
+      <c r="J63" t="n">
+        <v>8.82</v>
+      </c>
+      <c r="K63" t="n">
         <v>7.0</v>
       </c>
-      <c r="G63" t="n">
+      <c r="L63" t="n">
         <v>313.0</v>
       </c>
-      <c r="H63" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="I63" t="n">
+      <c r="M63" t="n">
         <v>25.37</v>
-      </c>
-      <c r="J63" t="n">
-        <v>32196.0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>372247.0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>8649.1</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3220.0</v>
       </c>
     </row>
     <row r="64">
@@ -3083,37 +3083,37 @@
         <v>140</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0</v>
+        <v>877730.0</v>
       </c>
       <c r="D64" t="n">
+        <v>91373.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9137.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1040.98</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H64" t="n">
         <v>1.0</v>
       </c>
-      <c r="E64" t="n">
+      <c r="I64" t="n">
         <v>4.0</v>
       </c>
-      <c r="F64" t="n">
+      <c r="J64" t="n">
+        <v>25.02</v>
+      </c>
+      <c r="K64" t="n">
         <v>15.0</v>
       </c>
-      <c r="G64" t="n">
+      <c r="L64" t="n">
         <v>604.0</v>
       </c>
-      <c r="H64" t="n">
-        <v>25.02</v>
-      </c>
-      <c r="I64" t="n">
+      <c r="M64" t="n">
         <v>62.64</v>
-      </c>
-      <c r="J64" t="n">
-        <v>91373.0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>877730.0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>10410.15</v>
-      </c>
-      <c r="M64" t="n">
-        <v>9137.0</v>
       </c>
     </row>
     <row r="65">
@@ -3124,37 +3124,37 @@
         <v>141</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0</v>
+        <v>155549.0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0</v>
+        <v>21858.0</v>
       </c>
       <c r="E65" t="n">
+        <v>2186.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1405.34</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I65" t="n">
         <v>1.0</v>
       </c>
-      <c r="F65" t="n">
+      <c r="J65" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="K65" t="n">
         <v>3.0</v>
       </c>
-      <c r="G65" t="n">
+      <c r="L65" t="n">
         <v>162.0</v>
       </c>
-      <c r="H65" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="M65" t="n">
         <v>16.04</v>
-      </c>
-      <c r="J65" t="n">
-        <v>21858.0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>155549.0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>14052.16</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2186.0</v>
       </c>
     </row>
     <row r="66">
@@ -3165,37 +3165,37 @@
         <v>142</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0</v>
+        <v>461461.0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0</v>
+        <v>19035.0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0</v>
+        <v>1904.0</v>
       </c>
       <c r="F66" t="n">
+        <v>412.6</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="K66" t="n">
         <v>3.0</v>
       </c>
-      <c r="G66" t="n">
+      <c r="L66" t="n">
         <v>137.0</v>
       </c>
-      <c r="H66" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="I66" t="n">
+      <c r="M66" t="n">
         <v>14.04</v>
-      </c>
-      <c r="J66" t="n">
-        <v>19035.0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>461461.0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>4124.94</v>
-      </c>
-      <c r="M66" t="n">
-        <v>1904.0</v>
       </c>
     </row>
     <row r="67">
@@ -3206,37 +3206,37 @@
         <v>143</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0</v>
+        <v>227918.0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0</v>
+        <v>6436.0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0</v>
+        <v>644.0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0</v>
+        <v>282.56</v>
       </c>
       <c r="G67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L67" t="n">
         <v>149.0</v>
       </c>
-      <c r="H67" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="I67" t="n">
+      <c r="M67" t="n">
         <v>8.28</v>
-      </c>
-      <c r="J67" t="n">
-        <v>6436.0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>227918.0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2823.82</v>
-      </c>
-      <c r="M67" t="n">
-        <v>644.0</v>
       </c>
     </row>
   </sheetData>
